--- a/LF/PreTAS/Benin/bj_lf_pretas_3_resultat_fts_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_3_resultat_fts_202009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EB1B77-656D-4038-881D-FD95EAAEFBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6503CB59-4998-48C5-B01A-4AE69206244F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="187">
   <si>
     <t>form_title</t>
   </si>
@@ -530,9 +530,6 @@
     <t>d_commune</t>
   </si>
   <si>
-    <t>bj_lf_pretas_3_resultat_fts_202009</t>
-  </si>
-  <si>
     <t>d_Barcode_id</t>
   </si>
   <si>
@@ -560,47 +557,52 @@
     <t xml:space="preserve">${d_result3} = 'Invalide' </t>
   </si>
   <si>
-    <t>(${d_result1} = 'Positif' and ${d_result2} = 'Negatif')
+    <t>Sélectionner le nom de la grappe</t>
+  </si>
+  <si>
+    <t>La grappe est une communauté (village)</t>
+  </si>
+  <si>
+    <t>Le code a trois chiffre associé à chaque grappe</t>
+  </si>
+  <si>
+    <t>Sélectionner le code de la grappe</t>
+  </si>
+  <si>
+    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 123-123456 uniquement avec des nombres et des tirets)</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{6}$')</t>
+  </si>
+  <si>
+    <t>Must be entered as 123-123456 only with number and dashes)</t>
+  </si>
+  <si>
+    <t>Doit être entré au format 123-123456 uniquement avec desnombre et tirets</t>
+  </si>
+  <si>
+    <t>(Septembre 2020) 3. Benin - Pre TAS FL Résultat FTS V2</t>
+  </si>
+  <si>
+    <t>bj_lf_pretas_3_resultat_fts_202009_v2</t>
+  </si>
+  <si>
+    <t>(${d_result1} = 'Positif' and ${d_result2} = 'Négatif')
 or (${d_result1} = 'Positif' and ${d_result2} = 'Invalide')
 or (${d_result1} = 'Invalide' and ${d_result2} = 'Positif')</t>
   </si>
   <si>
-    <t xml:space="preserve">${d_result1} != 'Negatif' </t>
-  </si>
-  <si>
-    <t>Sélectionner le nom de la grappe</t>
-  </si>
-  <si>
-    <t>La grappe est une communauté (village)</t>
-  </si>
-  <si>
-    <t>Le code a trois chiffre associé à chaque grappe</t>
-  </si>
-  <si>
-    <t>Sélectionner le code de la grappe</t>
-  </si>
-  <si>
-    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 123-123456 uniquement avec des nombres et des tirets)</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{6}$')</t>
-  </si>
-  <si>
-    <t>Must be entered as 123-123456 only with number and dashes)</t>
-  </si>
-  <si>
-    <t>Doit être entré au format 123-123456 uniquement avec desnombre et tirets</t>
-  </si>
-  <si>
     <t>if(${d_result1}="Positif" and ${d_result2}="Positif", "Positif",
- if(${d_result1}="Positif" and ${d_result2}="Negatif" and ${d_result3}="Negatif", "Negatif",
-  if(${d_result1}="Positif" and ${d_result2}="Negatif" and ${d_result3}="Positif", "Positif",
-   if(${d_result1}="Positif" and ${d_result2}="Invalide" and ${d_result3}="Negatif", "Negatif",
+ if(${d_result1}="Positif" and ${d_result2}="Négatif" and ${d_result3}="Négatif", "Négatif",
+  if(${d_result1}="Positif" and ${d_result2}="Négatif" and ${d_result3}="Positif", "Positif",
+   if(${d_result1}="Positif" and ${d_result2}="Invalide" and ${d_result3}="Négatif", "Négatif",
     if(${d_result1}="Positif" and ${d_result2}="Invalide" and ${d_result3}="Positif", "Positif",
      if(${d_result1}="Invalide" and ${d_result2}="Positif" and ${d_result3}="Positif", "Positif",
-      if(${d_result1}="Invalide" and ${d_result2}="Positif" and ${d_result3}="Negatif", "Negatif",
+      if(${d_result1}="Invalide" and ${d_result2}="Positif" and ${d_result3}="Négatif", "Négatif",
        if(${d_result1}="Invalide" and ${d_result2}="Invalide", "Invalide",
-        if(${d_result1}="Invalide" and ${d_result2}="Negatif", "Negatif", "Indetermine" )
+        if(${d_result1}="Invalide" and ${d_result2}="Négatif", "Négatif",
+         if(${d_result1}="Négatif" , "Négatif", "Indéterminé" )
+        )
        )
       )
      )
@@ -609,9 +611,6 @@
   )
  )
 )</t>
-  </si>
-  <si>
-    <t>(Septembre 2020) 3. Benin - Pre TAS FL Résultat FTS (Septembre 2020)</t>
   </si>
 </sst>
 </file>
@@ -1147,11 +1146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1302,10 +1301,10 @@
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="25"/>
@@ -1332,10 +1331,10 @@
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="25"/>
@@ -1383,7 +1382,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>48</v>
@@ -1413,25 +1412,25 @@
         <v>27</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>157</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="17"/>
       <c r="H8" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>137</v>
@@ -1449,7 +1448,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>49</v>
@@ -1461,7 +1460,7 @@
       <c r="F9" s="27"/>
       <c r="G9" s="17"/>
       <c r="H9" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>136</v>
@@ -1560,7 +1559,7 @@
       <c r="I12" s="36"/>
       <c r="J12" s="29"/>
       <c r="K12" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L12" s="17"/>
       <c r="M12" s="26" t="s">
@@ -1648,7 +1647,7 @@
       <c r="I15" s="36"/>
       <c r="J15" s="29"/>
       <c r="K15" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="26"/>
@@ -1676,7 +1675,7 @@
       <c r="I16" s="36"/>
       <c r="J16" s="29"/>
       <c r="K16" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="26" t="s">
@@ -1710,7 +1709,7 @@
       <c r="I17" s="39"/>
       <c r="J17" s="40"/>
       <c r="K17" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L17" s="37"/>
       <c r="M17" s="26" t="s">
@@ -1742,7 +1741,7 @@
       <c r="I18" s="39"/>
       <c r="J18" s="40"/>
       <c r="K18" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="26" t="s">
@@ -1800,7 +1799,7 @@
       <c r="I20" s="39"/>
       <c r="J20" s="40"/>
       <c r="K20" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L20" s="16" t="s">
         <v>129</v>
@@ -1832,7 +1831,7 @@
       <c r="I21" s="36"/>
       <c r="J21" s="29"/>
       <c r="K21" s="35" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="26"/>
@@ -1860,7 +1859,7 @@
       <c r="I22" s="36"/>
       <c r="J22" s="29"/>
       <c r="K22" s="35" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="26" t="s">
@@ -1894,7 +1893,7 @@
       <c r="I23" s="39"/>
       <c r="J23" s="40"/>
       <c r="K23" s="35" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="26" t="s">
@@ -1926,7 +1925,7 @@
       <c r="I24" s="39"/>
       <c r="J24" s="40"/>
       <c r="K24" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="26" t="s">
@@ -1979,22 +1978,20 @@
         <v>130</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="K28" s="6"/>
       <c r="L28" s="7" t="s">
         <v>186</v>
       </c>
@@ -2012,9 +2009,7 @@
       <c r="E29" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>177</v>
-      </c>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2030,7 +2025,7 @@
         <v>72</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2311,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2338,13 +2333,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C2">
-        <v>20200904</v>
+        <v>20200908</v>
       </c>
       <c r="D2" t="s">
         <v>150</v>

--- a/LF/PreTAS/Benin/bj_lf_pretas_3_resultat_fts_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_3_resultat_fts_202009.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6503CB59-4998-48C5-B01A-4AE69206244F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB49609-CA59-4D14-B47D-DDC5005B7E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="177">
   <si>
     <t>form_title</t>
   </si>
@@ -143,12 +143,6 @@
     <t>c_end</t>
   </si>
   <si>
-    <t>Scanner le code-barres maintenant</t>
-  </si>
-  <si>
-    <t>select_one id_list</t>
-  </si>
-  <si>
     <t>id_list</t>
   </si>
   <si>
@@ -161,24 +155,12 @@
     <t>Génération automatique</t>
   </si>
   <si>
-    <t>barcode</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
     <t>d_recorderID</t>
   </si>
   <si>
-    <t>d_IDType</t>
-  </si>
-  <si>
-    <t>Does a bar code need to be scanned on the diagnostic test?</t>
-  </si>
-  <si>
-    <t>Scan barcode now</t>
-  </si>
-  <si>
     <t>Re-enter the unique ID</t>
   </si>
   <si>
@@ -239,9 +221,6 @@
     <t>notes_part</t>
   </si>
   <si>
-    <t>Avez-vous besoin de scanner le code barre sur le test diagnostique</t>
-  </si>
-  <si>
     <t>Répéter l'identifiant unique</t>
   </si>
   <si>
@@ -344,9 +323,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>${d_IDType} = "Scanner"</t>
-  </si>
-  <si>
     <t>regex(.,'^[0-9]{2}$')</t>
   </si>
   <si>
@@ -443,9 +419,6 @@
     <t>Le code répété doit être le même</t>
   </si>
   <si>
-    <t>${d_IDType} = "Generation automatique"</t>
-  </si>
-  <si>
     <t>FTS -  Test 3</t>
   </si>
   <si>
@@ -503,9 +476,6 @@
     <t>Le résultat final de ce participant est: ${d_final_result}</t>
   </si>
   <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 12-123-123456 upper case only with dashes)</t>
-  </si>
-  <si>
     <t>Invalide</t>
   </si>
   <si>
@@ -530,18 +500,6 @@
     <t>d_commune</t>
   </si>
   <si>
-    <t>d_Barcode_id</t>
-  </si>
-  <si>
-    <t>d_Generate_id</t>
-  </si>
-  <si>
-    <t>d_Generate_id2</t>
-  </si>
-  <si>
-    <t>. = ${d_Generate_id}</t>
-  </si>
-  <si>
     <t>${d_final_result} = 'Positif'</t>
   </si>
   <si>
@@ -567,24 +525,6 @@
   </si>
   <si>
     <t>Sélectionner le code de la grappe</t>
-  </si>
-  <si>
-    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 123-123456 uniquement avec des nombres et des tirets)</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{6}$')</t>
-  </si>
-  <si>
-    <t>Must be entered as 123-123456 only with number and dashes)</t>
-  </si>
-  <si>
-    <t>Doit être entré au format 123-123456 uniquement avec desnombre et tirets</t>
-  </si>
-  <si>
-    <t>(Septembre 2020) 3. Benin - Pre TAS FL Résultat FTS V2</t>
-  </si>
-  <si>
-    <t>bj_lf_pretas_3_resultat_fts_202009_v2</t>
   </si>
   <si>
     <t>(${d_result1} = 'Positif' and ${d_result2} = 'Négatif')
@@ -612,12 +552,42 @@
  )
 )</t>
   </si>
+  <si>
+    <t>bj_lf_pretas_3_resultat_fts_202009_v3</t>
+  </si>
+  <si>
+    <t>(Septembre 2020) 3. Benin - Pre TAS FL Résultat FTS V3</t>
+  </si>
+  <si>
+    <t>d_code_id</t>
+  </si>
+  <si>
+    <t>d_code_id2</t>
+  </si>
+  <si>
+    <t>. = ${d_code_id}</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test (must be entered as 123-123 upper case only with dashes)</t>
+  </si>
+  <si>
+    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 123-123 uniquement avec des nombres et des tirets)</t>
+  </si>
+  <si>
+    <t>regex(.,'^[0-9]{3}-[0-9]{1,3}$')</t>
+  </si>
+  <si>
+    <t>Must be entered as 123-123 only with number and dashes)</t>
+  </si>
+  <si>
+    <t>Doit être entré au format 123-123 uniquement avec desnombre et tirets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -659,13 +629,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -745,7 +708,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -753,8 +716,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -766,11 +729,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -804,13 +767,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -831,10 +794,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,13 +1104,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>18</v>
@@ -1237,25 +1197,25 @@
         <v>19</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="21"/>
       <c r="M2" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
@@ -1266,14 +1226,14 @@
         <v>27</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="21"/>
@@ -1283,7 +1243,7 @@
       <c r="K3" s="25"/>
       <c r="L3" s="17"/>
       <c r="M3" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N3" s="25"/>
       <c r="O3" s="26"/>
@@ -1293,18 +1253,18 @@
       <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>159</v>
+      <c r="B4" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="20" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="25"/>
@@ -1313,7 +1273,7 @@
       <c r="K4" s="25"/>
       <c r="L4" s="17"/>
       <c r="M4" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N4" s="25"/>
       <c r="O4" s="26"/>
@@ -1324,17 +1284,17 @@
         <v>27</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="20" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="25"/>
@@ -1343,197 +1303,197 @@
       <c r="K5" s="25"/>
       <c r="L5" s="17"/>
       <c r="M5" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N5" s="25"/>
       <c r="O5" s="26"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>47</v>
+        <v>169</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="D6" s="28"/>
-      <c r="E6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="25"/>
+      <c r="E6" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="17" t="s">
-        <v>104</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="17"/>
       <c r="L7" s="17"/>
       <c r="M7" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="26"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="B8" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="17"/>
       <c r="M8" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
+        <v>96</v>
+      </c>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>137</v>
-      </c>
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="17"/>
       <c r="M9" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="26"/>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34" t="s">
-        <v>106</v>
+        <v>90</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="29"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="34" t="s">
+        <v>157</v>
+      </c>
       <c r="L10" s="17"/>
       <c r="M10" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+        <v>96</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
       <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>74</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33" t="s">
+        <v>112</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="29"/>
-      <c r="K11" s="35"/>
+      <c r="K11" s="34" t="s">
+        <v>91</v>
+      </c>
       <c r="L11" s="17"/>
       <c r="M11" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
@@ -1541,520 +1501,458 @@
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34" t="s">
-        <v>71</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="29"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="L12" s="17"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="M12" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>112</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="29"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="36"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="29"/>
-      <c r="K13" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="26" t="s">
-        <v>103</v>
-      </c>
+      <c r="K13" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="29"/>
+        <v>27</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="39"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="36"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="29"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="16" t="s">
-        <v>102</v>
-      </c>
+      <c r="K14" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="16"/>
       <c r="M14" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="36"/>
+      <c r="M15" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="36"/>
       <c r="M16" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+        <v>96</v>
+      </c>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="36"/>
       <c r="M17" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
+        <v>96</v>
+      </c>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="36"/>
+      <c r="M21" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="L22" s="36"/>
+      <c r="M22" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="M23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="K24" s="6"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="39" t="s">
+      <c r="C28" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-    </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-    </row>
-    <row r="23" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="L23" s="37"/>
-      <c r="M23" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="37"/>
-      <c r="M25" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="K26" s="6"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>130</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7" t="s">
-        <v>186</v>
+      <c r="E28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2128,170 +2026,170 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="D5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2205,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2333,16 +2231,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>20200908</v>
+        <v>20200917</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/LF/PreTAS/Benin/bj_lf_pretas_3_resultat_fts_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_3_resultat_fts_202009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB49609-CA59-4D14-B47D-DDC5005B7E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB44955-7F99-4EFD-8EF1-F2007FAB196E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -556,9 +556,6 @@
     <t>bj_lf_pretas_3_resultat_fts_202009_v3</t>
   </si>
   <si>
-    <t>(Septembre 2020) 3. Benin - Pre TAS FL Résultat FTS V3</t>
-  </si>
-  <si>
     <t>d_code_id</t>
   </si>
   <si>
@@ -581,6 +578,9 @@
   </si>
   <si>
     <t>Doit être entré au format 123-123 uniquement avec desnombre et tirets</t>
+  </si>
+  <si>
+    <t>3. Benin - Pre TAS FL Résultat FTS</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="17"/>
       <c r="H6" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="J6" s="33" t="s">
         <v>175</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>176</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>43</v>
@@ -1360,7 +1360,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="17"/>
       <c r="H7" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>128</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>167</v>
       </c>
       <c r="C2">
-        <v>20200917</v>
+        <v>20200925</v>
       </c>
       <c r="D2" t="s">
         <v>141</v>

--- a/LF/PreTAS/Benin/bj_lf_pretas_3_resultat_fts_202009.xlsx
+++ b/LF/PreTAS/Benin/bj_lf_pretas_3_resultat_fts_202009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB44955-7F99-4EFD-8EF1-F2007FAB196E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22700E97-5545-42E2-8EFD-13971F0BA0E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1107,10 +1107,10 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
